--- a/models/calculation engines/AA price forecast/Outputs/Refineries Capacity and Production Output.xlsx
+++ b/models/calculation engines/AA price forecast/Outputs/Refineries Capacity and Production Output.xlsx
@@ -581,9 +581,7 @@
           <t>Guangxi</t>
         </is>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
         <v>0</v>
       </c>
@@ -641,13 +639,13 @@
         <v>8.1</v>
       </c>
       <c r="X2" t="n">
-        <v>8.9</v>
+        <v>8.732000000000001</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.9</v>
+        <v>8.4</v>
       </c>
       <c r="Z2" t="n">
-        <v>9.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AA2" t="n">
         <v>9.9</v>
@@ -695,9 +693,7 @@
           <t>Guizhou</t>
         </is>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
         <v>0</v>
       </c>
@@ -809,9 +805,7 @@
           <t>Henan</t>
         </is>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
         <v>0</v>
       </c>
@@ -869,7 +863,7 @@
         <v>12.75</v>
       </c>
       <c r="X4" t="n">
-        <v>10.05</v>
+        <v>9.919999999999998</v>
       </c>
       <c r="Y4" t="n">
         <v>8.850000000000001</v>
@@ -923,9 +917,7 @@
           <t>Shanxi</t>
         </is>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
         <v>0</v>
       </c>
@@ -983,10 +975,10 @@
         <v>24.4</v>
       </c>
       <c r="X5" t="n">
-        <v>20.92000000000001</v>
+        <v>19.87</v>
       </c>
       <c r="Y5" t="n">
-        <v>18.57</v>
+        <v>18.27</v>
       </c>
       <c r="Z5" t="n">
         <v>18.47</v>
@@ -1037,9 +1029,7 @@
           <t>Other</t>
         </is>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
         <v>0</v>
       </c>
@@ -1097,10 +1087,10 @@
         <v>4.67</v>
       </c>
       <c r="X6" t="n">
-        <v>3.97</v>
+        <v>3.814</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.97</v>
+        <v>3.67</v>
       </c>
       <c r="Z6" t="n">
         <v>3.97</v>
@@ -1146,9 +1136,7 @@
       <c r="C7" t="n">
         <v>0</v>
       </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
           <t>H-B</t>
@@ -1260,9 +1248,7 @@
       <c r="C8" t="n">
         <v>0</v>
       </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
           <t>L-B</t>
@@ -1374,9 +1360,7 @@
       <c r="C9" t="n">
         <v>0</v>
       </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
           <t>fly ash</t>
@@ -1640,9 +1624,7 @@
           <t>Guangxi</t>
         </is>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
         <v>0</v>
       </c>
@@ -1670,13 +1652,13 @@
         <v>2.404</v>
       </c>
       <c r="N2" t="n">
-        <v>4.543539393939394</v>
+        <v>4.543539394000001</v>
       </c>
       <c r="O2" t="n">
-        <v>5.199999999999999</v>
+        <v>5.2</v>
       </c>
       <c r="P2" t="n">
-        <v>5.300000000000001</v>
+        <v>5.3</v>
       </c>
       <c r="Q2" t="n">
         <v>6.04</v>
@@ -1700,19 +1682,19 @@
         <v>7.710000000000001</v>
       </c>
       <c r="X2" t="n">
-        <v>8.199999999999999</v>
+        <v>8.032</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.779999999999999</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="Z2" t="n">
+        <v>8.58</v>
+      </c>
+      <c r="AA2" t="n">
         <v>9.279999999999999</v>
       </c>
-      <c r="AA2" t="n">
-        <v>9.579999999999998</v>
-      </c>
       <c r="AB2" t="n">
-        <v>9.380000000000001</v>
+        <v>9.18</v>
       </c>
       <c r="AC2" t="n">
         <v>9.899999999999999</v>
@@ -1754,9 +1736,7 @@
           <t>Guizhou</t>
         </is>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
         <v>0</v>
       </c>
@@ -1790,7 +1770,7 @@
         <v>1.446</v>
       </c>
       <c r="P3" t="n">
-        <v>1.854993377483444</v>
+        <v>1.854993378</v>
       </c>
       <c r="Q3" t="n">
         <v>2.32</v>
@@ -1826,7 +1806,7 @@
         <v>5</v>
       </c>
       <c r="AB3" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="AC3" t="n">
         <v>5.5</v>
@@ -1868,9 +1848,7 @@
           <t>Henan</t>
         </is>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
         <v>0</v>
       </c>
@@ -1898,13 +1876,13 @@
         <v>8.412999999999998</v>
       </c>
       <c r="N4" t="n">
-        <v>8.422882568807339</v>
+        <v>8.422882569</v>
       </c>
       <c r="O4" t="n">
-        <v>9.403948166877369</v>
+        <v>9.403948164999999</v>
       </c>
       <c r="P4" t="n">
-        <v>9.966171779141098</v>
+        <v>9.966171778</v>
       </c>
       <c r="Q4" t="n">
         <v>10.6</v>
@@ -1928,16 +1906,16 @@
         <v>10.47</v>
       </c>
       <c r="X4" t="n">
-        <v>7.449999999999999</v>
+        <v>7.319999999999999</v>
       </c>
       <c r="Y4" t="n">
         <v>5.4</v>
       </c>
       <c r="Z4" t="n">
-        <v>5.25</v>
+        <v>5.15</v>
       </c>
       <c r="AA4" t="n">
-        <v>5.25</v>
+        <v>5.15</v>
       </c>
       <c r="AB4" t="n">
         <v>5</v>
@@ -1982,9 +1960,7 @@
           <t>Shanxi</t>
         </is>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
         <v>0</v>
       </c>
@@ -2015,13 +1991,13 @@
         <v>2.5755</v>
       </c>
       <c r="O5" t="n">
-        <v>3.703090405904059</v>
+        <v>3.703090407</v>
       </c>
       <c r="P5" t="n">
-        <v>5.242989501312336</v>
+        <v>5.242989499</v>
       </c>
       <c r="Q5" t="n">
-        <v>7.941000000000001</v>
+        <v>7.940999999999999</v>
       </c>
       <c r="R5" t="n">
         <v>9.970000000000001</v>
@@ -2042,13 +2018,13 @@
         <v>20.41</v>
       </c>
       <c r="X5" t="n">
-        <v>17.93</v>
+        <v>16.88</v>
       </c>
       <c r="Y5" t="n">
-        <v>12.86</v>
+        <v>12.56</v>
       </c>
       <c r="Z5" t="n">
-        <v>12.67</v>
+        <v>13.07</v>
       </c>
       <c r="AA5" t="n">
         <v>13.6</v>
@@ -2096,9 +2072,7 @@
           <t>Other</t>
         </is>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
         <v>0</v>
       </c>
@@ -2129,7 +2103,7 @@
         <v>0.48</v>
       </c>
       <c r="O6" t="n">
-        <v>0.4500000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="P6" t="n">
         <v>1.156</v>
@@ -2156,10 +2130,10 @@
         <v>2.75</v>
       </c>
       <c r="X6" t="n">
-        <v>2.6</v>
+        <v>2.444</v>
       </c>
       <c r="Y6" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="Z6" t="n">
         <v>2.7</v>
@@ -2189,10 +2163,10 @@
         <v>1.7</v>
       </c>
       <c r="AI6" t="n">
-        <v>1.699999999999986</v>
+        <v>1.7</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1.699999999999986</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="7">
@@ -2205,9 +2179,7 @@
       <c r="C7" t="n">
         <v>0</v>
       </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
           <t>H-B</t>
@@ -2319,9 +2291,7 @@
       <c r="C8" t="n">
         <v>0</v>
       </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
           <t>L-B</t>
@@ -2390,10 +2360,10 @@
         <v>29.61</v>
       </c>
       <c r="Z8" t="n">
-        <v>32.05</v>
+        <v>32.25</v>
       </c>
       <c r="AA8" t="n">
-        <v>32.95</v>
+        <v>33.34999999999999</v>
       </c>
       <c r="AB8" t="n">
         <v>34.27</v>
@@ -2433,9 +2403,7 @@
       <c r="C9" t="n">
         <v>0</v>
       </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
           <t>fly ash</t>
@@ -2815,7 +2783,7 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="K5" t="n">
         <v>0.8</v>
@@ -2910,7 +2878,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Chalco Pingguo </t>
+          <t>Chalco Pingguo</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -2977,7 +2945,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>1</v>
@@ -3133,7 +3101,7 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="K11" t="n">
         <v>2.4</v>
@@ -3239,10 +3207,10 @@
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="K13" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="L13" t="n">
         <v>0.8</v>
@@ -4129,7 +4097,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Kaiman import</t>
+          <t>Kaiman Import</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -6313,7 +6281,7 @@
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="K71" t="n">
         <v>2</v>
@@ -6726,7 +6694,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>East Hope Lingshi import</t>
+          <t>East Hope Lingshi Import</t>
         </is>
       </c>
       <c r="C79" t="inlineStr"/>
@@ -7108,7 +7076,7 @@
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
-        <v>3.47</v>
+        <v>3.32</v>
       </c>
       <c r="K86" t="n">
         <v>3.47</v>
@@ -8382,10 +8350,10 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="K5" t="n">
-        <v>0.3500000000000001</v>
+        <v>0.35</v>
       </c>
       <c r="L5" t="n">
         <v>0.4400000000000001</v>
@@ -8400,7 +8368,7 @@
         <v>0.625</v>
       </c>
       <c r="P5" t="n">
-        <v>0.7400000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="Q5" t="n">
         <v>0.77</v>
@@ -8505,7 +8473,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Chalco Pingguo </t>
+          <t>Chalco Pingguo</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -8628,7 +8596,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="L8" t="n">
         <v>0.2</v>
@@ -8868,7 +8836,7 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>0.1000000000000001</v>
+        <v>-0.09999999999999964</v>
       </c>
       <c r="K11" t="n">
         <v>-0.1000000000000001</v>
@@ -9030,10 +8998,10 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>0.4000000000000001</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="K13" t="n">
-        <v>0.3000000000000001</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="L13" t="n">
         <v>0.1000000000000001</v>
@@ -9210,7 +9178,7 @@
         <v>0.2</v>
       </c>
       <c r="P15" t="n">
-        <v>0.2799999999999999</v>
+        <v>0.28</v>
       </c>
       <c r="Q15" t="n">
         <v>0.5800000000000001</v>
@@ -10236,7 +10204,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Domestic</t>
+          <t>Imported</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -10368,7 +10336,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Kaiman import</t>
+          <t>Kaiman Import</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -10398,7 +10366,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Domestic</t>
+          <t>Imported</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -10560,7 +10528,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Domestic</t>
+          <t>Imported</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -10965,7 +10933,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Domestic</t>
+          <t>Imported</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -12099,7 +12067,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Fly ash</t>
+          <t>Imported</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -12666,7 +12634,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Domestic</t>
+          <t>Imported</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -13728,7 +13696,7 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>0.8499999999999999</v>
+        <v>0.7000000000000002</v>
       </c>
       <c r="K71" t="n">
         <v>1.35</v>
@@ -13881,7 +13849,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Domestic</t>
+          <t>Imported</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -14043,7 +14011,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Domestic</t>
+          <t>Imported</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -14205,7 +14173,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Domestic</t>
+          <t>Imported</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -14337,7 +14305,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>East Hope Lingshi import</t>
+          <t>East Hope Lingshi Import</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -14466,7 +14434,7 @@
         <v>0.1</v>
       </c>
       <c r="M80" t="n">
-        <v>0.3700000000000001</v>
+        <v>0.37</v>
       </c>
       <c r="N80" t="n">
         <v>0.4</v>
@@ -14943,7 +14911,7 @@
         </is>
       </c>
       <c r="J86" t="n">
-        <v>0.8200000000000003</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="K86" t="n">
         <v>2.07</v>
@@ -15096,7 +15064,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Domestic</t>
+          <t>Imported</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -15420,7 +15388,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Domestic</t>
+          <t>Imported</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -15597,10 +15565,10 @@
         <v>0.4</v>
       </c>
       <c r="L94" t="n">
-        <v>0.6600000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="M94" t="n">
-        <v>0.7400000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="N94" t="n">
         <v>0.8</v>
@@ -15818,13 +15786,13 @@
           <t>spare</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr">
         <is>
           <t>spare</t>
         </is>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
       </c>
       <c r="I97" t="inlineStr">
         <is>
@@ -15897,13 +15865,13 @@
           <t>spare</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
+      <c r="G98" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr">
         <is>
           <t>spare</t>
         </is>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
       </c>
       <c r="I98" t="inlineStr">
         <is>
@@ -15976,13 +15944,13 @@
           <t>spare</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
+      <c r="G99" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr">
         <is>
           <t>spare</t>
         </is>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
       </c>
       <c r="I99" t="inlineStr">
         <is>
@@ -16055,13 +16023,13 @@
           <t>spare</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
+      <c r="G100" t="n">
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr">
         <is>
           <t>spare</t>
         </is>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
       </c>
       <c r="I100" t="inlineStr">
         <is>
@@ -16134,13 +16102,13 @@
           <t>spare</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
+      <c r="G101" t="n">
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr">
         <is>
           <t>spare</t>
         </is>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
       </c>
       <c r="I101" t="inlineStr">
         <is>
@@ -16213,13 +16181,13 @@
           <t>spare</t>
         </is>
       </c>
-      <c r="G102" t="inlineStr">
+      <c r="G102" t="n">
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr">
         <is>
           <t>spare</t>
         </is>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
       </c>
       <c r="I102" t="inlineStr">
         <is>
@@ -16653,10 +16621,10 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>0.3400000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1900000000000002</v>
+        <v>0.1900000000000001</v>
       </c>
       <c r="L5" t="n">
         <v>0.2800000000000001</v>
@@ -16671,7 +16639,7 @@
         <v>0.4650000000000001</v>
       </c>
       <c r="P5" t="n">
-        <v>0.5800000000000002</v>
+        <v>0.5800000000000001</v>
       </c>
       <c r="Q5" t="n">
         <v>0.6100000000000001</v>
@@ -16776,7 +16744,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Chalco Pingguo </t>
+          <t>Chalco Pingguo</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -16899,7 +16867,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -17301,10 +17269,10 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>0.2400000000000002</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1400000000000002</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -17481,7 +17449,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0.07999999999999996</v>
+        <v>0.08000000000000007</v>
       </c>
       <c r="Q15" t="n">
         <v>0.3800000000000001</v>
@@ -18138,7 +18106,7 @@
         <v>0.4800000000000002</v>
       </c>
       <c r="S23" t="n">
-        <v>0.9600000000000003</v>
+        <v>0.9600000000000002</v>
       </c>
       <c r="T23" t="n">
         <v>1.12</v>
@@ -18507,7 +18475,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Domestic</t>
+          <t>Imported</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -18639,7 +18607,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Kaiman import</t>
+          <t>Kaiman Import</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -18669,7 +18637,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Domestic</t>
+          <t>Imported</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -18831,7 +18799,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Domestic</t>
+          <t>Imported</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -19236,7 +19204,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Domestic</t>
+          <t>Imported</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -19509,7 +19477,7 @@
         <v>0.34</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.3700000000000001</v>
+        <v>0.37</v>
       </c>
       <c r="R40" t="n">
         <v>0.4</v>
@@ -20370,7 +20338,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Fly ash</t>
+          <t>Imported</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -20937,7 +20905,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Domestic</t>
+          <t>Imported</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -21999,7 +21967,7 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>0.45</v>
+        <v>0.3300000000000003</v>
       </c>
       <c r="K71" t="n">
         <v>0.9500000000000001</v>
@@ -22152,7 +22120,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Domestic</t>
+          <t>Imported</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -22314,7 +22282,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Domestic</t>
+          <t>Imported</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -22476,7 +22444,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Domestic</t>
+          <t>Imported</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -22608,7 +22576,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>East Hope Lingshi import</t>
+          <t>East Hope Lingshi Import</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -22737,7 +22705,7 @@
         <v>0.02000000000000007</v>
       </c>
       <c r="M80" t="n">
-        <v>0.2900000000000001</v>
+        <v>0.29</v>
       </c>
       <c r="N80" t="n">
         <v>0.3200000000000001</v>
@@ -23214,7 +23182,7 @@
         </is>
       </c>
       <c r="J86" t="n">
-        <v>0.1260000000000003</v>
+        <v>0.006000000000000227</v>
       </c>
       <c r="K86" t="n">
         <v>1.376</v>
@@ -23367,7 +23335,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Domestic</t>
+          <t>Imported</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -23691,7 +23659,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Domestic</t>
+          <t>Imported</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -23868,10 +23836,10 @@
         <v>0.2400000000000001</v>
       </c>
       <c r="L94" t="n">
-        <v>0.5000000000000002</v>
+        <v>0.5000000000000001</v>
       </c>
       <c r="M94" t="n">
-        <v>0.5800000000000002</v>
+        <v>0.5800000000000001</v>
       </c>
       <c r="N94" t="n">
         <v>0.6400000000000001</v>
@@ -24089,13 +24057,13 @@
           <t>spare</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr">
         <is>
           <t>spare</t>
         </is>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
       </c>
       <c r="I97" t="inlineStr">
         <is>
@@ -24168,13 +24136,13 @@
           <t>spare</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
+      <c r="G98" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr">
         <is>
           <t>spare</t>
         </is>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
       </c>
       <c r="I98" t="inlineStr">
         <is>
@@ -24247,13 +24215,13 @@
           <t>spare</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
+      <c r="G99" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr">
         <is>
           <t>spare</t>
         </is>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
       </c>
       <c r="I99" t="inlineStr">
         <is>
@@ -24326,13 +24294,13 @@
           <t>spare</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
+      <c r="G100" t="n">
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr">
         <is>
           <t>spare</t>
         </is>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
       </c>
       <c r="I100" t="inlineStr">
         <is>
@@ -24405,13 +24373,13 @@
           <t>spare</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
+      <c r="G101" t="n">
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr">
         <is>
           <t>spare</t>
         </is>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
       </c>
       <c r="I101" t="inlineStr">
         <is>
@@ -24484,13 +24452,13 @@
           <t>spare</t>
         </is>
       </c>
-      <c r="G102" t="inlineStr">
+      <c r="G102" t="n">
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr">
         <is>
           <t>spare</t>
         </is>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
       </c>
       <c r="I102" t="inlineStr">
         <is>
